--- a/파이썬/코딩교실 매크로/1.코딩교실준비/2.추가인원 수강신청/1.추가인원 가입 수강신청/PH/추가인원 가입 수강신청.xlsx
+++ b/파이썬/코딩교실 매크로/1.코딩교실준비/2.추가인원 수강신청/1.추가인원 가입 수강신청/PH/추가인원 가입 수강신청.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJG\Documents\GitHub\enoz_kjg\파이썬\코딩교실 매크로\1.코딩교실준비\2.추가인원 수강신청\1.추가인원 가입 수강신청\PH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2FC672-6033-4368-81B8-8A398B4F70EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530A25EF-4489-4D35-A8A4-CF764B88581F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5335,7 +5335,7 @@
   <dimension ref="A1:X501"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="M1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -5523,7 +5523,7 @@
         <v>1267</v>
       </c>
       <c r="T4" s="2">
-        <v>900</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -5561,7 +5561,7 @@
         <v>1268</v>
       </c>
       <c r="T5" s="2">
-        <v>1200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6" spans="1:24">

--- a/파이썬/코딩교실 매크로/1.코딩교실준비/2.추가인원 수강신청/1.추가인원 가입 수강신청/PH/추가인원 가입 수강신청.xlsx
+++ b/파이썬/코딩교실 매크로/1.코딩교실준비/2.추가인원 수강신청/1.추가인원 가입 수강신청/PH/추가인원 가입 수강신청.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJG\Documents\GitHub\enoz_kjg\파이썬\코딩교실 매크로\1.코딩교실준비\2.추가인원 수강신청\1.추가인원 가입 수강신청\PH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530A25EF-4489-4D35-A8A4-CF764B88581F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E8E518-2B51-4240-A58F-DABA8979EC3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
